--- a/design/MiniTemplate/Excels/skill_export.xlsx
+++ b/design/MiniTemplate/Excels/skill_export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147B8352-68A9-460E-91E6-7BF9D67DD8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ABC0C5-E964-4CE1-AC43-A186D13AF9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10836" yWindow="4236" windowWidth="20952" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>none</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -224,6 +224,14 @@
   </si>
   <si>
     <t>*#最大生命并清除buff，^次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abandon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(生物)随机获得X个技能。(玩家)增加^个技能上限。此技能自动添加给100层后的小怪，X为当前层数-100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -650,140 +658,148 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/design/MiniTemplate/Excels/skill_export.xlsx
+++ b/design/MiniTemplate/Excels/skill_export.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ABC0C5-E964-4CE1-AC43-A186D13AF9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0660B8F-7C9F-4B30-A6B7-AFD1EAB3AB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>none</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -706,6 +706,9 @@
       <c r="C13" t="s">
         <v>54</v>
       </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">

--- a/design/MiniTemplate/Excels/skill_export.xlsx
+++ b/design/MiniTemplate/Excels/skill_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BiliBili\Work\slime\design\MiniTemplate\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0660B8F-7C9F-4B30-A6B7-AFD1EAB3AB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED39368-3449-462E-9926-3B1FA7901773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5688" yWindow="1284" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>none</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -232,6 +232,14 @@
   </si>
   <si>
     <t>(生物)随机获得X个技能。(玩家)增加^个技能上限。此技能自动添加给100层后的小怪，X为当前层数-100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -571,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -806,6 +814,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
